--- a/inst/extdata/indicies.xlsx
+++ b/inst/extdata/indicies.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B373782\Projects\budgetr\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikko/Projects/budgetr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AF3E9B-A173-5D48-B9D1-485ABEC1E699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17745" activeTab="4"/>
+    <workbookView xWindow="580" yWindow="1080" windowWidth="23760" windowHeight="12480" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mspi" sheetId="1" r:id="rId1"/>
@@ -17,20 +18,29 @@
     <sheet name="corp_tax" sheetId="4" r:id="rId3"/>
     <sheet name="prop_tax" sheetId="6" r:id="rId4"/>
     <sheet name="gov_trans" sheetId="7" r:id="rId5"/>
-    <sheet name="earnings" sheetId="5" r:id="rId6"/>
-    <sheet name="source" sheetId="2" r:id="rId7"/>
+    <sheet name="adj" sheetId="8" r:id="rId6"/>
+    <sheet name="earnings" sheetId="5" r:id="rId7"/>
+    <sheet name="source" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>year</t>
   </si>
@@ -102,15 +112,21 @@
   </si>
   <si>
     <t>gov_trans</t>
+  </si>
+  <si>
+    <t>fert</t>
+  </si>
+  <si>
+    <t>mort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -186,7 +202,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -467,14 +483,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -678,14 +694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -883,14 +899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1049,19 +1065,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.19921875" style="6"/>
+    <col min="2" max="2" width="9.19921875" style="8"/>
+    <col min="3" max="3" width="9.19921875" style="10"/>
+    <col min="4" max="16384" width="9.19921875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1103,7 +1119,7 @@
         <v>14500</v>
       </c>
       <c r="C4" s="10">
-        <f t="shared" ref="C4:C14" si="0">B4/B3-1</f>
+        <f t="shared" ref="C4" si="0">B4/B3-1</f>
         <v>-6.5771444231296217E-3</v>
       </c>
     </row>
@@ -1243,16 +1259,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1353,7 +1369,7 @@
         <v>39500000</v>
       </c>
       <c r="C6" s="10">
-        <f t="shared" ref="C6:C14" si="2">ROUND(B6/B5-1,4)</f>
+        <f t="shared" ref="C6" si="2">ROUND(B6/B5-1,4)</f>
         <v>0.13800000000000001</v>
       </c>
       <c r="E6">
@@ -1431,14 +1447,159 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB63C60C-BE8B-B641-86B2-D205439565F6}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2">
+        <v>1.0614969999999999</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2020</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
+        <v>2021</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2014,19 +2175,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="96.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.796875" customWidth="1"/>
+    <col min="4" max="4" width="96.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2129,12 +2290,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
